--- a/konghai/khjtd-test/QuestionImportTemplate(khjtd).xlsx
+++ b/konghai/khjtd-test/QuestionImportTemplate(khjtd).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732CEAF1-4F8F-674F-BC9D-EFD892197276}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB317738-78BC-9E4B-AE06-8E9AAFB96E4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="500" windowWidth="28800" windowHeight="15180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="500" windowWidth="28800" windowHeight="15180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单选题" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="583">
   <si>
     <t>题目</t>
   </si>
@@ -2583,6 +2583,58 @@
   </si>
   <si>
     <t>玄奘大師求法经历。(c1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有四食資益眾生，令得住世攝受長養。何等為四?一者摶食，二者觸食，三意思食，四者識食。(c58)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「爾時，世尊告諸比丘:有四食資益眾生，令得住世攝受長養。何等為四?一者摶食，二者觸食，三意思食，四者識食。若比丘於此四食有喜有貪，則識住增長;識住增長故，入於名色;入名色故，諸行增長;行增長故，當來有增長;當來有增長故，生、老、病、死、憂、悲、惱苦集，如是純大苦聚集。若於四食無貪無喜，無貪無喜故，識不住，不增長;識不住，不增長故，不入名色;不入名色故，行不增長;行不增長故，當來有不生不長」(c58)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以四種食物而存，所有的眾生都要靠吃，靠營養、靠能源，才能夠生存下來。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「佛告比丘:一切眾生以四食存」(c58)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「生命」是由「死亡」堆積而成。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬骨枯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眾生、包括我們的生命，就是建立在眾生的死亡上面。「一將功成_________」。(c58)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「粗摶食」是指三餐飲食，能滋養色身，又稱段食。「觸食」是指感官的接觸享受，例如看美色、聽美樂、嘗美食「意思食」是指意見、思想上的同化，政治家、思想家最常用的手腕。但是，一般眾生只要還沒有到達解脫，幾乎每天一樣是在「意思食」的吃跟被吃之中。所謂「識食」，深層的「自我」要聚集更多的我、我所，同時排斥與「我」相異者，這是一般宗教家大法師們所易陷入的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是為了要去看到食物鏈、「意思食」，以另外一個角度來看，就是「自我」的影子，我是、我能的影子，當你收攝六根、打坐，如果你的經行不是讓你的心靜下來，去看到這四種食，你沒辦法斷生死輪迴。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「粗摶食」「觸食」「意思食」「識食」是指什麼？(c58)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收攝六根是為了做什麼?(c58)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「彩筆畫空、空不染」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「譬如，畫師、畫師弟子集種種彩色，欲粧畫虛空，寧能畫不?」「彩筆畫空、________」(c58)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3174,10 +3226,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.5" defaultRowHeight="15"/>
@@ -3226,7 +3278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
@@ -3293,7 +3345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="48">
+    <row r="22" spans="1:3" ht="32">
       <c r="A22" s="1" t="s">
         <v>165</v>
       </c>
@@ -3364,7 +3416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32">
+    <row r="29" spans="1:3" ht="16">
       <c r="A29" s="1" t="s">
         <v>397</v>
       </c>
@@ -3407,7 +3459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="48">
+    <row r="34" spans="1:3" ht="32">
       <c r="A34" s="1" t="s">
         <v>484</v>
       </c>
@@ -3420,6 +3472,14 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1"/>
+    </row>
+    <row r="38" spans="1:3" ht="16">
+      <c r="A38" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3431,8 +3491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -4532,6 +4592,27 @@
         <v>85</v>
       </c>
     </row>
+    <row r="125" spans="1:4" ht="32">
+      <c r="A125" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="32">
+      <c r="A126" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="32">
+      <c r="A127" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
     <row r="137" spans="1:2" ht="16">
       <c r="A137" s="7" t="s">
         <v>554</v>
@@ -4622,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -5516,6 +5597,35 @@
         <v>533</v>
       </c>
     </row>
+    <row r="116" spans="1:2" ht="96">
+      <c r="A116" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="16">
+      <c r="A117" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="64">
+      <c r="A118" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="48">
+      <c r="A119" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
     <row r="123" spans="1:2" ht="32">
       <c r="A123" s="6" t="s">
         <v>558</v>

--- a/konghai/khjtd-test/QuestionImportTemplate(khjtd).xlsx
+++ b/konghai/khjtd-test/QuestionImportTemplate(khjtd).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB317738-78BC-9E4B-AE06-8E9AAFB96E4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD70844-2F77-A946-86D7-63F50534BBF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="500" windowWidth="28800" windowHeight="15180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单选题" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="610">
   <si>
     <t>题目</t>
   </si>
@@ -2602,10 +2602,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「生命」是由「死亡」堆積而成。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>萬骨枯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2635,6 +2631,118 @@
   </si>
   <si>
     <t>「譬如，畫師、畫師弟子集種種彩色，欲粧畫虛空，寧能畫不?」「彩筆畫空、________」(c58)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「生命」是由「死亡」堆積而成。(c58)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聽聞《阿含》如何落實在日常生活裡面。(c59)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要把聽聞《阿含》方面，當作一門知識的累積，如果只是把它當作一門學問、一門知識的累積，你學再久，還是一樣沒辦法落實在日常生活裡面。你聽聞到之後，不在於多少，而是在於你要去落實、去實踐，隨時都要在歷緣對境中，反觀、反照，能夠覺察到每一次的聽聞，每一次的看書，都會不斷在突破、在成長，這樣才是真正從聞思裡面受益，才是真正把聞思落實在日常的歷緣對境中實踐，這是最重要。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「念食」是「諸意中所念想、所思惟者」「所念識者，意之所知」「識食」的「識」，是「心王」、明覺。「念食」是「心所」、念頭思惟。「識」是一個「心王」，是一個明覺、明覺的心，像禪宗《六祖壇經》裡面講到「不思善、不思惡」，正在這當下的時候，是一個明覺心的顯現，講的是「心王」。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「念食」跟「識食」有怎麼樣不同的地方?(c59)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「觸滅」解釋。(c60)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸，受，思，行。解釋。(c60)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「觸滅」，就是「空」的一種觸，「三輪體空」的觸。「空觸」，溶入每一個當下，他就是不迎不拒、不貪不瞋，他就活在每個當下、不抓。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">苦 劍刺 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無常、滅想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「觀於樂受而作____想，觀於苦受而作____想，觀不苦不樂受作____、____者，是名正見」(c60)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>為了斷除貪、瞋、痴，因此才需要修行，你這個貪往上一層去追溯，就是來自於因為你有樂受，...要去看到貪、瞋、痴的前行，苦、樂、不苦不樂，又要從這裡再去看到，都是來自於六根跟六塵接觸之後，產生的種種心理變化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「觀於樂受，為斷樂受貪使故，於我所修梵行;斷苦受瞋恚使故，於我所修梵行;斷不苦不樂受痴使故」(c60)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「愚癡無聞凡夫生苦受、樂受、不苦不樂受，多聞聖弟子亦生苦受、樂受、不苦不樂受。諸比丘!凡夫、聖人有何差別?」(c60)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「若比丘樂受貪使已斷、已知，苦受恚使已斷、已知，不苦不樂受痴使已斷、已知，是名比丘斷除愛欲縛、去諸結、慢無間等、究竟苦邊」(c60)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你如果能夠從各種觸受裡面去看到，然後就能夠斷除貪、瞋、痴，也就是十個結，它會因為你有回來微細而深入的反觀，於是它會斷除得很快，這樣你就很快能夠解脫自在，真正的解脫、真正要成佛，這些你是必經的過程，重點也都是在這方面。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「愚癡無聞凡夫身觸生諸受」「憂愁稱怨，怨天尤人，啼哭號呼，心生狂亂;當於爾時，增長二受，若身受、若心受」「譬如士夫身被雙毒箭，極生痛苦」「增長二受─身受、心受，極生苦痛。所以者何?以彼愚癡無聞凡夫不了知故，於諸五欲生樂受觸，受五欲樂;受五欲樂故，為貪使所使。苦受觸故，則生瞋恚」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「於此二受，若集、若滅、若味、若患、若離不如實知」貪瞋是如何起的？(c60)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在你落入這些苦、樂受之前，要去看到苦、樂受，貪、瞋是這裡的「行」，你在起貪瞋之前，前面一定是經過這些苦受、樂受，你要再更深一層去看到最初那個「觸」，這樣才不會成為境界的奴隸而不知。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「於此二受，若集、滅、味、患、離」「不如實知故，生不苦不樂受」「為樂受所繫而終不離」「云何繫?謂為貪、恚、癡所繫，為生、老、病、死、憂、悲、惱苦所繫」(c60)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「多聞聖弟子身觸生苦受，大苦逼迫、乃至奪命，不起憂悲稱怨、啼哭號呼、心亂發狂;當於爾時，唯生一受，所謂身受，不生心受」(c60)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個解脫者、一個有證果的人，並不是「六根」與「六塵」不接觸，而是在接觸之後，他保持一種「三輪體空」的觸，一種「空觸」，後面這些就沒有繼續再下來，他一樣可以有樂受、不貪啊!他就是在每一個觸的當下，一樣有這些，但是他不會去迎、不會去拒，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他們都是天使，在告訴我們法，一個是「無常法印」，第二個是「食物鏈」，都在告訴我們法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出世間法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「_________」沒有人跟你搶，沒有人跟你爭，大家是同參道友，會相輔相成。(c61)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要你沒有解脫，沒有超越六道輪迴，就是在食物鏈裡面，一直吃、吃、、吃，吃到最後就是被吃，(c61)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢慢去透視四種食，慢慢去了悟「三法印」，然後就對世間的實相，可以很深度去看到，在這個世界，五濁惡世，它一樣都可以成就你開出美麗的花朵，出淤泥而不染，在淤泥中，長出漂亮的蓮花。你在滾滾紅塵之中，會有一種超越、超然的胸襟，一樣會去做事情，一樣去盡心盡力做你該做的事情，隨順著緣起去做你該做的事情，你不會怠惰，你的人生會很樂觀、很積極，但是會有一種超然的心胸在面對滾滾紅塵，因為你知道方向、知道目標。如果慢慢修行之後，你的內心會很悠閒、很快樂，如果慢慢修行到相當高的境界，當你解脫自在，你內心、你外表，一樣是很快樂啊!你能夠返璞歸真，快樂自在啊!到後來你的內心就是這樣很快樂的，當你了悟這些實相，然後又能夠在塵不染塵，同流但不合污，到後來就是返璞歸真，快樂、解脫自在啊!跟一切眾生相處、和平共存。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>從蟾蜍的生和死，土撥鼠四腳朝天，「菜蟲吃菜、菜下死」，黑洞，人類的「黑洞」，體悟了什麼？要過怎麼樣一生？(c61)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3226,10 +3334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.5" defaultRowHeight="15"/>
@@ -3470,14 +3578,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="38" spans="1:3" ht="16">
-      <c r="A38" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    <row r="35" spans="1:3" ht="16">
+      <c r="A35" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="32">
+      <c r="A36" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3491,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -4599,18 +4715,37 @@
     </row>
     <row r="126" spans="1:4" ht="32">
       <c r="A126" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="32">
       <c r="A127" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="32">
+      <c r="A128" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="16">
+      <c r="A129" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="16">
@@ -4701,10 +4836,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -5612,51 +5747,109 @@
     </row>
     <row r="118" spans="1:2" ht="64">
       <c r="A118" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="48">
       <c r="A119" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="32">
-      <c r="A123" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="80">
+      <c r="A120" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="64">
+      <c r="A121" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="32">
+      <c r="A122" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="16">
+      <c r="A123" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="48">
+      <c r="A124" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="48">
+      <c r="A125" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="64">
+      <c r="A126" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="48">
+      <c r="A127" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="51">
+      <c r="A128" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="48">
+      <c r="A129" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="128">
+      <c r="A130" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="32">
+      <c r="A138" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="16">
-      <c r="A125" s="6"/>
-    </row>
-    <row r="126" spans="1:2" ht="16">
-      <c r="A126" s="6"/>
-    </row>
-    <row r="127" spans="1:2" ht="16">
-      <c r="A127" s="6"/>
-    </row>
-    <row r="128" spans="1:2" ht="16">
-      <c r="A128" s="6"/>
-    </row>
-    <row r="129" spans="1:1" ht="16">
-      <c r="A129" s="6"/>
-    </row>
-    <row r="130" spans="1:1" ht="16">
-      <c r="A130" s="6"/>
-    </row>
-    <row r="131" spans="1:1" ht="16">
-      <c r="A131" s="6"/>
-    </row>
-    <row r="132" spans="1:1" ht="16">
-      <c r="A132" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
